--- a/Meeting.xlsx
+++ b/Meeting.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5CE453-3D20-4C25-BA2A-0AF9FC265649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Splint MTG" sheetId="1" r:id="rId1"/>
+    <sheet name="共有すべき事項" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>10:00～</t>
     <phoneticPr fontId="1"/>
@@ -28,16 +30,6 @@
     <t>議題</t>
     <rPh sb="0" eb="2">
       <t>ギダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題等</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,11 +130,130 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>13:00～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・共有事項を別シートに記載しておく（～5/15）</t>
+    <rPh sb="1" eb="3">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回への課題等</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★Splint Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★共有すべき事項</t>
+    <rPh sb="1" eb="3">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>久保</t>
+    <rPh sb="0" eb="2">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松下</t>
+    <rPh sb="0" eb="2">
+      <t>マツシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福田</t>
+    <rPh sb="0" eb="2">
+      <t>フクタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユニークワードを何にするか。何行何列目に置くか。</t>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナンギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ナンレツメ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各自の担当機能作成分の共有
+・共有すべき事項の確認</t>
+    <rPh sb="1" eb="3">
+      <t>カクジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,27 +311,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,78 +623,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>43949</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>43958</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>43949</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="10">
+        <v>43964</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>43958</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>43964</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>43966</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362F524A-ED49-45B0-9988-D694FEB87A35}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="49.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>